--- a/report/11月12月简易统计.xlsx
+++ b/report/11月12月简易统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\tqqq_simulation\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039D2A3B-03A5-4EA3-BD1E-A59E49AAF247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1157699-91D7-4EC1-8D79-BF245AA43DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,13 +465,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C40" activeCellId="5" sqref="C5 C6 C16 C22 C34 C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="25.375" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
